--- a/biology/Zoologie/Epichernes_navarroi/Epichernes_navarroi.xlsx
+++ b/biology/Zoologie/Epichernes_navarroi/Epichernes_navarroi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epichernes navarroi est une espèce de pseudoscorpions de la famille des Chernetidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Quintana Roo au Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Quintana Roo au Mexique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se rencontre dans le terrier de Hetemmys  gaumeri et de Peromyscus yuoatanicus[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se rencontre dans le terrier de Hetemmys  gaumeri et de Peromyscus yuoatanicus.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Muchmore, 1991 : Pseudoscorpionida. Diversidad biológica en la Reserva de la Biosfera de Sian Ka'an Quintana Roo, México. Diversidad biológica en la Reserva de la Biosfera de Sian Ka'an Quintana Roo, México. Chetumal, p. 155-173.</t>
         </is>
